--- a/_Resources/配置表/游戏配置表/G_关卡表.xlsx
+++ b/_Resources/配置表/游戏配置表/G_关卡表.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LevelData" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckCondition" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +27,63 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASUS072</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">检测类型 输入id
+0 检测rolekey 的状态
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">要判断的rolekey
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">检测类型 输入id
+Love：
+{
+   isLove = 0,//是否正在爱        参数：正在爱的角色id
+   isLoved = 1,//是否曾经爱过     参数：曾经爱过的角色id
+}
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -40,12 +94,24 @@
     <t>PictureSum</t>
   </si>
   <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>CheckConditionList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>list&lt;int&gt;</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -55,7 +121,73 @@
     <t>画面数量</t>
   </si>
   <si>
+    <t>场景id列表</t>
+  </si>
+  <si>
+    <t>角色id列表</t>
+  </si>
+  <si>
+    <t>关卡完成的条件 CheckConditionID</t>
+  </si>
+  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>让伏羲和夏娃结婚</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rolekey</t>
+  </si>
+  <si>
+    <t>eventKey</t>
+  </si>
+  <si>
+    <t>eventCheckType</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>检测类型</t>
+  </si>
+  <si>
+    <t>rolekey表的key</t>
+  </si>
+  <si>
+    <t>要检测的事件Key</t>
+  </si>
+  <si>
+    <t>事件检测类型</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>fuxi是否正在爱着nvwa</t>
+  </si>
+  <si>
+    <t>Fuxi</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>nvwa 是否正在爱着 fuxi</t>
+  </si>
+  <si>
+    <t>Nuwa</t>
   </si>
 </sst>
 </file>
@@ -68,7 +200,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +365,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -706,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,8 +853,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,20 +1173,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,55 +1199,346 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,33 +1550,487 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>